--- a/Control trabajo Rubiales/2023/Mayo.xlsx
+++ b/Control trabajo Rubiales/2023/Mayo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Velandia Juan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Velandia Juan\Documents\GitHub\horasExtra\Control trabajo Rubiales\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8F664-DED1-4DE0-B014-CCD8D400722B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343CE323-48B9-4623-902D-36BE7B9EF2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{05CAB0E0-F3EF-490D-9707-E7180E0D52F5}"/>
   </bookViews>
@@ -152,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,11 +188,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -206,20 +289,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,6 +511,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D52E6A0-8932-4A0E-B751-94848BBF8E5E}" name="Table1" displayName="Table1" ref="B2:H8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="B2:H8" xr:uid="{7D52E6A0-8932-4A0E-B751-94848BBF8E5E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2FD17D69-6CE4-43CF-AD6E-7CE8F9347A61}" name="Item" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1360B424-F9B8-44AB-9300-0461A3B6C729}" name="Fecha " dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FCC908B1-AB19-40ED-9CD6-BA0767F7D547}" name="Proyecto" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E3BB8080-9F3D-454A-9B7B-8A8E6658E42E}" name="Pozo/Cluster/item" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{664E832F-EA16-4156-9970-B77A0B0DB2D5}" name="Novedad" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{7EF00F65-EEA4-4757-BB47-554B5DF6718A}" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{89626CE9-1D57-4368-B5D9-428970C1438C}" name="Ingeniero " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,14 +829,14 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="31.36328125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
@@ -547,31 +844,31 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -589,13 +886,13 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -613,13 +910,13 @@
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="2">
@@ -637,13 +934,13 @@
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="2">
@@ -661,65 +958,68 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>45204</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
         <v>45204</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>